--- a/doc/UDSP并发测试报告.xlsx
+++ b/doc/UDSP并发测试报告.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>查询条件</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>120左右</t>
+  </si>
+  <si>
+    <t>windows上tomcat(10.1.40.134)</t>
+  </si>
+  <si>
+    <t>90左右</t>
+  </si>
+  <si>
+    <t>18左右</t>
   </si>
   <si>
     <t>现象和结论：</t>
@@ -128,12 +137,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,13 +183,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -239,6 +241,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -283,30 +309,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -397,6 +399,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -481,18 +495,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -528,7 +530,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -627,7 +629,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -636,9 +638,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -648,9 +648,74 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -711,6 +776,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -743,26 +828,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -774,154 +839,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -971,31 +1042,70 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1349,242 +1459,284 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="3" max="3" width="28.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="31.875" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="20.25" customWidth="1"/>
     <col min="8" max="8" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25"/>
     <row r="2" ht="25.5" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="8">
         <v>30</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="10" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="14" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="9"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="10" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="14" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="25"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:7">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="26"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="D13" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="14" s="1" customFormat="1" spans="1:7">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="15" ht="14.25" spans="1:7">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>33</v>
       </c>
+      <c r="D17" s="41"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="B3:B12"/>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="B3:B15"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C15"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
